--- a/trunk/수정리스트_20160728.xlsx
+++ b/trunk/수정리스트_20160728.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="135" windowWidth="24240" windowHeight="12495"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="284">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1181,12 +1181,26 @@
     <t>글이 긴 경우 한글은 자동 개행이 되는데 숫자 영문은 오른쪽으로 넘어감.  수정 요망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2016.08.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경전 : 조치전사진, 조치후 사진 토글 버튼
+변경후 : 조치전사진,조치후 사진 왼쪽 하단(투명, 카메라버튼),오른쪽하단(투명,갤러리버튼) 
+* 토글버튼으로 되어있는 화면들은 버튼 두개로 변경되어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,7 +1475,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1523,7 +1537,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1809,13 +1823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.875" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
@@ -1828,7 +1842,7 @@
     <col min="9" max="9" width="60.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>239</v>
       </c>
@@ -1841,7 +1855,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1903,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="36">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1906,7 +1920,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1943,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1954,7 +1968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1">
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1977,7 +1991,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1">
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2014,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -2025,7 +2039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
@@ -2050,7 +2064,7 @@
       </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1">
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2089,7 @@
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1">
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2112,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1">
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -2132,7 +2146,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1">
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2213,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
+    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2210,7 +2224,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
@@ -2291,7 +2305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>61</v>
       </c>
@@ -2316,7 +2330,7 @@
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
@@ -2339,7 +2353,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>61</v>
       </c>
@@ -2364,7 +2378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>80</v>
       </c>
@@ -2389,7 +2403,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>86</v>
       </c>
@@ -2416,7 +2430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>86</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>86</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
@@ -2491,7 +2505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>96</v>
       </c>
@@ -2539,7 +2553,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>96</v>
       </c>
@@ -2560,7 +2574,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>96</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>96</v>
       </c>
@@ -2604,7 +2618,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>96</v>
       </c>
@@ -2625,7 +2639,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>96</v>
       </c>
@@ -2646,7 +2660,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>96</v>
       </c>
@@ -2667,7 +2681,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>96</v>
       </c>
@@ -2688,7 +2702,7 @@
       <c r="H38" s="16"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>96</v>
       </c>
@@ -2709,7 +2723,7 @@
       <c r="H39" s="16"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>96</v>
       </c>
@@ -2730,7 +2744,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>96</v>
       </c>
@@ -2751,7 +2765,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>123</v>
       </c>
@@ -2772,7 +2786,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>123</v>
       </c>
@@ -2793,7 +2807,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>123</v>
       </c>
@@ -2816,7 +2830,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>123</v>
       </c>
@@ -2837,7 +2851,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
+    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
@@ -2848,7 +2862,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>203</v>
       </c>
@@ -2869,7 +2883,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>203</v>
       </c>
@@ -2890,7 +2904,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>203</v>
       </c>
@@ -2911,7 +2925,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>203</v>
       </c>
@@ -2934,7 +2948,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>203</v>
       </c>
@@ -2957,7 +2971,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>203</v>
       </c>
@@ -2980,7 +2994,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>203</v>
       </c>
@@ -3003,7 +3017,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>203</v>
       </c>
@@ -3026,7 +3040,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>203</v>
       </c>
@@ -3049,7 +3063,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>203</v>
       </c>
@@ -3072,7 +3086,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>203</v>
       </c>
@@ -3095,7 +3109,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>203</v>
       </c>
@@ -3118,7 +3132,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>203</v>
       </c>
@@ -3141,7 +3155,7 @@
       <c r="H59" s="16"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>203</v>
       </c>
@@ -3164,7 +3178,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>203</v>
       </c>
@@ -3185,7 +3199,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
+    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3196,7 +3210,7 @@
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>160</v>
       </c>
@@ -3219,7 +3233,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>160</v>
       </c>
@@ -3240,7 +3254,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>160</v>
       </c>
@@ -3263,7 +3277,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>160</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>160</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>160</v>
       </c>
@@ -3336,7 +3350,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>160</v>
       </c>
@@ -3359,7 +3373,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>160</v>
       </c>
@@ -3382,7 +3396,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>160</v>
       </c>
@@ -3403,7 +3417,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>160</v>
       </c>
@@ -3428,7 +3442,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>160</v>
       </c>
@@ -3451,7 +3465,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>160</v>
       </c>
@@ -3474,7 +3488,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>160</v>
       </c>
@@ -3497,7 +3511,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>160</v>
       </c>
@@ -3520,7 +3534,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>160</v>
       </c>
@@ -3545,7 +3559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>160</v>
       </c>
@@ -3568,7 +3582,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>160</v>
       </c>
@@ -3591,7 +3605,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>160</v>
       </c>
@@ -3614,7 +3628,7 @@
       <c r="H80" s="16"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
+    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>160</v>
       </c>
@@ -3637,7 +3651,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>160</v>
       </c>
@@ -3660,7 +3674,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>203</v>
       </c>
@@ -3683,7 +3697,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>160</v>
       </c>
@@ -3706,7 +3720,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>160</v>
       </c>
@@ -3731,7 +3745,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>245</v>
       </c>
@@ -3754,7 +3768,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>253</v>
       </c>
@@ -3777,7 +3791,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>253</v>
       </c>
@@ -3800,7 +3814,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>253</v>
       </c>
@@ -3823,7 +3837,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
+    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>253</v>
       </c>
@@ -3848,7 +3862,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
+    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>253</v>
       </c>
@@ -3871,7 +3885,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="40.5" customHeight="1">
+    <row r="92" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
         <v>238</v>
       </c>
@@ -3884,7 +3898,7 @@
       <c r="H92" s="39"/>
       <c r="I92" s="39"/>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>0</v>
       </c>
@@ -3913,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>96</v>
       </c>
@@ -3938,7 +3952,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
+    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>160</v>
       </c>
@@ -3961,7 +3975,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>160</v>
       </c>
@@ -3984,7 +3998,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>241</v>
       </c>
@@ -4005,7 +4019,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>241</v>
       </c>
@@ -4026,7 +4040,7 @@
       <c r="H98" s="16"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
         <v>267</v>
       </c>
@@ -4049,7 +4063,7 @@
       <c r="H99" s="16"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="100" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>267</v>
       </c>
@@ -4072,7 +4086,7 @@
       <c r="H100" s="16"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="101" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>270</v>
       </c>
@@ -4093,7 +4107,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="102" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
         <v>270</v>
       </c>
@@ -4114,7 +4128,7 @@
       <c r="H102" s="16"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="103" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
         <v>270</v>
       </c>
@@ -4135,7 +4149,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="104" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>270</v>
       </c>
@@ -4157,6 +4171,25 @@
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="23"/>
+    </row>
+    <row r="105" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" s="16"/>
+      <c r="I105" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4176,7 +4209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4189,7 +4222,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
